--- a/DATA/RAW/Gas_consumption_data_2015.xlsx
+++ b/DATA/RAW/Gas_consumption_data_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF1C8E-5081-4477-96A3-13A0CF4BE641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E936F-436F-40CF-9D85-112CA487CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76680" yWindow="-5505" windowWidth="18255" windowHeight="19755" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="1" r:id="rId1"/>
@@ -380,21 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -405,6 +390,21 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,22 +724,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
@@ -768,45 +768,45 @@
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -858,20 +858,20 @@
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:20" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -882,20 +882,20 @@
       <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -906,20 +906,20 @@
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -933,19 +933,19 @@
       <c r="A10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -978,17 +978,17 @@
       <c r="T11" s="15"/>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -1002,15 +1002,15 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1871,16 +1871,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1891,48 +1891,49 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="23">
         <v>12430.605492447647</v>
       </c>
-      <c r="D2" s="26">
-        <f>ROUND(SQRT(K2)*(F2-E2)/3.92, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="D2" s="21">
+        <f>ROUND((F2-E2)/1.35, 0)</f>
+        <v>5683</v>
+      </c>
+      <c r="E2" s="23">
         <v>8157.6885406464262</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="23">
         <v>15829.578844270325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="23">
         <v>13703.380125924339</v>
       </c>
-      <c r="D3" s="26">
-        <f>ROUND(SQRT(K3)*(F3-E3)/3.92, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="D3" s="21">
+        <f>ROUND((F3-E3)/1.35, 0)</f>
+        <v>7495</v>
+      </c>
+      <c r="E3" s="23">
         <v>7590.5974534769839</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="23">
         <v>17708.910891089108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DATA/RAW/Gas_consumption_data_2015.xlsx
+++ b/DATA/RAW/Gas_consumption_data_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E936F-436F-40CF-9D85-112CA487CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC675BBB-0D94-4F2C-893D-D5F84ECB074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="by_dwelling_type" sheetId="3" r:id="rId3"/>
     <sheet name="by_dwelling_age" sheetId="4" r:id="rId4"/>
     <sheet name="by_tenancy" sheetId="5" r:id="rId5"/>
-    <sheet name="by_income" sheetId="6" r:id="rId6"/>
-    <sheet name="by_walls_insulation" sheetId="7" r:id="rId7"/>
+    <sheet name="by_walls_insulation" sheetId="7" r:id="rId6"/>
+    <sheet name="by_income" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1044,7 +1044,9 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1663,6 +1665,91 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591DE445-0FFE-48B0-B62D-4D1AD5574578}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.9453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="23">
+        <v>12430.605492447647</v>
+      </c>
+      <c r="D2" s="21">
+        <f>ROUND((F2-E2)/1.35, 0)</f>
+        <v>5683</v>
+      </c>
+      <c r="E2" s="23">
+        <v>8157.6885406464262</v>
+      </c>
+      <c r="F2" s="23">
+        <v>15829.578844270325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23">
+        <v>13703.380125924339</v>
+      </c>
+      <c r="D3" s="21">
+        <f>ROUND((F3-E3)/1.35, 0)</f>
+        <v>7495</v>
+      </c>
+      <c r="E3" s="23">
+        <v>7590.5974534769839</v>
+      </c>
+      <c r="F3" s="23">
+        <v>17708.910891089108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1851,89 +1938,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591DE445-0FFE-48B0-B62D-4D1AD5574578}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.9453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="23">
-        <v>12430.605492447647</v>
-      </c>
-      <c r="D2" s="21">
-        <f>ROUND((F2-E2)/1.35, 0)</f>
-        <v>5683</v>
-      </c>
-      <c r="E2" s="23">
-        <v>8157.6885406464262</v>
-      </c>
-      <c r="F2" s="23">
-        <v>15829.578844270325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="23">
-        <v>13703.380125924339</v>
-      </c>
-      <c r="D3" s="21">
-        <f>ROUND((F3-E3)/1.35, 0)</f>
-        <v>7495</v>
-      </c>
-      <c r="E3" s="23">
-        <v>7590.5974534769839</v>
-      </c>
-      <c r="F3" s="23">
-        <v>17708.910891089108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>